--- a/template/codes_template.xlsx
+++ b/template/codes_template.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\OneDrive - ayang\Work\Go\src\icbc.com\quiz\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AF898A-5251-4690-9529-A981B929EDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF458439-151A-4DA9-AF6F-F7D2840006E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F84AFEA4-C2E7-4280-8ADF-7E312DAF7506}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,15 +26,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>AAAA-1111</t>
   </si>
   <si>
     <t>BBBB-2222</t>
+  </si>
+  <si>
+    <t>奖品等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 兑换码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBBB-2223</t>
   </si>
 </sst>
 </file>
@@ -61,6 +86,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -411,36 +437,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFECC38E-0DD4-436B-B400-3B1FC33355C7}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734B4167-46BF-4679-9E28-DE45D7048B2E}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="28" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
+    </row>
+    <row r="4" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
